--- a/devices/Infineon_IKZ75N65EL5_650V_withoutRecovery.xlsx
+++ b/devices/Infineon_IKZ75N65EL5_650V_withoutRecovery.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Forward" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>175</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,6 +85,18 @@
   </si>
   <si>
     <t>Zthch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eon_vs_Rg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eoff_vs_Rg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -450,16 +462,16 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.375" customWidth="1"/>
-    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -473,7 +485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1.0086991999999999</v>
       </c>
@@ -487,7 +499,7 @@
         <v>0.60134926</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2.9409057999999999</v>
       </c>
@@ -501,7 +513,7 @@
         <v>0.66439130000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>6.2107938999999996</v>
       </c>
@@ -515,7 +527,7 @@
         <v>0.72349321</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>11.412889</v>
       </c>
@@ -529,7 +541,7 @@
         <v>0.76683462000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>19.290346</v>
       </c>
@@ -543,7 +555,7 @@
         <v>0.80426582999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>27.168965</v>
       </c>
@@ -557,7 +569,7 @@
         <v>0.84366711000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>34.569135000000003</v>
       </c>
@@ -571,7 +583,7 @@
         <v>0.87518812999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44.463745000000003</v>
       </c>
@@ -585,7 +597,7 @@
         <v>0.91064926999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>51.863914999999999</v>
       </c>
@@ -599,7 +611,7 @@
         <v>0.94217030000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>60.156140999999998</v>
       </c>
@@ -613,7 +625,7 @@
         <v>0.97947287999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>68.255384000000006</v>
       </c>
@@ -627,7 +639,7 @@
         <v>1.0201054000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>78.444755000000001</v>
       </c>
@@ -641,7 +653,7 @@
         <v>1.0625849000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>88.764758999999998</v>
       </c>
@@ -655,7 +667,7 @@
         <v>1.0995235999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>99.346028000000004</v>
       </c>
@@ -669,7 +681,7 @@
         <v>1.1346153999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>108.22906999999999</v>
       </c>
@@ -683,7 +695,7 @@
         <v>1.1776533</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>118.81034</v>
       </c>
@@ -697,7 +709,7 @@
         <v>1.2230810000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>133.88858999999999</v>
       </c>
@@ -711,7 +723,7 @@
         <v>1.2661176999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>150.10225</v>
       </c>
@@ -725,7 +737,7 @@
         <v>1.3019816</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>168.77874</v>
       </c>
@@ -739,7 +751,7 @@
         <v>1.3330636</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>183.96620999999999</v>
       </c>
@@ -753,7 +765,7 @@
         <v>1.3641456999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>204.69506000000001</v>
       </c>
@@ -767,7 +779,7 @@
         <v>1.3975869000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>221.17832999999999</v>
       </c>
@@ -781,7 +793,7 @@
         <v>1.4249798</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="D24" s="2">
@@ -791,7 +803,7 @@
         <v>1.4493290000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="D25" s="2">
@@ -801,7 +813,7 @@
         <v>1.4767219</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="D26" s="2">
@@ -811,7 +823,7 @@
         <v>1.4934620000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="D27" s="2">
@@ -821,7 +833,7 @@
         <v>1.5159589</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="D28" s="2">
@@ -831,7 +843,7 @@
         <v>1.540646</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="D29" s="2">
@@ -841,7 +853,7 @@
         <v>1.5559285</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="D30" s="2">
@@ -867,17 +879,17 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.75" customWidth="1"/>
-    <col min="2" max="3" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.25" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" customWidth="1"/>
+    <col min="2" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -891,7 +903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0.84294855999999996</v>
       </c>
@@ -906,7 +918,7 @@
         <v>0.68058664000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2.9460747999999999</v>
       </c>
@@ -920,7 +932,7 @@
         <v>0.76711536999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>6.7699407000000003</v>
       </c>
@@ -934,7 +946,7 @@
         <v>0.83595677999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>13.270512999999999</v>
       </c>
@@ -948,7 +960,7 @@
         <v>0.89619300999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>22.256598</v>
       </c>
@@ -962,7 +974,7 @@
         <v>0.94352148000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>32.963422000000001</v>
       </c>
@@ -976,7 +988,7 @@
         <v>1.0032388999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43.670247000000003</v>
       </c>
@@ -990,7 +1002,7 @@
         <v>1.0571056999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>54.950651000000001</v>
       </c>
@@ -1004,7 +1016,7 @@
         <v>1.1109724999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>66.039861999999999</v>
       </c>
@@ -1018,7 +1030,7 @@
         <v>1.1585019999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>81.295554999999993</v>
       </c>
@@ -1032,7 +1044,7 @@
         <v>1.2028627999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>96.973405</v>
       </c>
@@ -1046,7 +1058,7 @@
         <v>1.2472236999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>112.72338999999999</v>
       </c>
@@ -1060,7 +1072,7 @@
         <v>1.288416</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>128.31969000000001</v>
       </c>
@@ -1074,7 +1086,7 @@
         <v>1.3359455</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>148.32706999999999</v>
       </c>
@@ -1088,7 +1100,7 @@
         <v>1.3739691000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>160.29999000000001</v>
       </c>
@@ -1102,7 +1114,7 @@
         <v>1.4056554000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>177.24554000000001</v>
       </c>
@@ -1116,7 +1128,7 @@
         <v>1.4373418</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>191.4058</v>
       </c>
@@ -1130,7 +1142,7 @@
         <v>1.4690281000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>205.20756</v>
       </c>
@@ -1144,7 +1156,7 @@
         <v>1.5102203999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>217.75461999999999</v>
       </c>
@@ -1158,7 +1170,7 @@
         <v>1.5577498999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="D21" s="2">
@@ -1168,7 +1180,7 @@
         <v>1.5969249000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1179,7 +1191,7 @@
         <v>1.6308663000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1190,7 +1202,7 @@
         <v>1.6648076999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1201,7 +1213,7 @@
         <v>1.7013598999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1212,7 +1224,7 @@
         <v>1.7431338999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="D26" s="2">
@@ -1222,7 +1234,7 @@
         <v>1.7849079000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="D27" s="2">
@@ -1232,7 +1244,7 @@
         <v>1.8188492999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="D28" s="2">
@@ -1243,7 +1255,7 @@
       </c>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D29" s="2">
         <v>178.57850999999999</v>
       </c>
@@ -1251,7 +1263,7 @@
         <v>1.9050081000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D30" s="2">
         <v>188.44174000000001</v>
       </c>
@@ -1259,7 +1271,7 @@
         <v>1.9482577999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D31" s="2">
         <v>197.33761999999999</v>
       </c>
@@ -1267,7 +1279,7 @@
         <v>1.9845609</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D32" s="2">
         <v>205.53851</v>
       </c>
@@ -1275,7 +1287,7 @@
         <v>2.0168303000000001</v>
       </c>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D33" s="2">
         <v>214.85138000000001</v>
       </c>
@@ -1283,7 +1295,7 @@
         <v>2.0591838999999998</v>
       </c>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D34" s="2">
         <v>223.74726000000001</v>
       </c>
@@ -1303,27 +1315,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.25" customWidth="1"/>
-    <col min="5" max="6" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" customWidth="1"/>
+    <col min="5" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="11" max="11" width="11.625" customWidth="1"/>
-    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -1342,8 +1354,14 @@
       <c r="H1" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>8.7471034000000003</v>
       </c>
@@ -1366,7 +1384,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>27.693898000000001</v>
       </c>
@@ -1389,7 +1407,7 @@
       </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44.610678999999998</v>
       </c>
@@ -1412,7 +1430,7 @@
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>62.204130999999997</v>
       </c>
@@ -1435,7 +1453,7 @@
       </c>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>80.135919000000001</v>
       </c>
@@ -1458,7 +1476,7 @@
       </c>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>97.052700000000002</v>
       </c>
@@ -1481,7 +1499,7 @@
       </c>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>120.05952000000001</v>
       </c>
@@ -1504,7 +1522,7 @@
       </c>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>145.46077</v>
       </c>
@@ -1527,7 +1545,7 @@
       </c>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>168.22478000000001</v>
       </c>
@@ -1550,7 +1568,7 @@
       </c>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>186.43598</v>
       </c>
@@ -1573,7 +1591,7 @@
       </c>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>205.40598</v>
       </c>
@@ -1592,7 +1610,7 @@
       </c>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>222.35252</v>
       </c>
@@ -1604,7 +1622,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1612,7 +1630,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1620,42 +1638,42 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1671,24 +1689,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.75" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" customWidth="1"/>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
-    <col min="8" max="10" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.25" customWidth="1"/>
-    <col min="13" max="14" width="10.25" customWidth="1"/>
-    <col min="15" max="15" width="10.75" customWidth="1"/>
+    <col min="1" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" customWidth="1"/>
+    <col min="11" max="12" width="11.21875" customWidth="1"/>
+    <col min="13" max="14" width="10.21875" customWidth="1"/>
+    <col min="15" max="15" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -1707,8 +1726,14 @@
       <c r="H1" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>9.1809118000000005</v>
       </c>
@@ -1732,7 +1757,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>18.266370999999999</v>
       </c>
@@ -1756,7 +1781,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>28.050711</v>
       </c>
@@ -1780,7 +1805,7 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>38.184491999999999</v>
       </c>
@@ -1804,7 +1829,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>48.318272999999998</v>
       </c>
@@ -1828,7 +1853,7 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>60.158814999999997</v>
       </c>
@@ -1852,7 +1877,7 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>72.495671999999999</v>
       </c>
@@ -1876,7 +1901,7 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>85.544269999999997</v>
       </c>
@@ -1900,7 +1925,7 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>100.49084999999999</v>
       </c>
@@ -1924,7 +1949,7 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>112.35321</v>
       </c>
@@ -1948,7 +1973,7 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>125.8763</v>
       </c>
@@ -1972,7 +1997,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>141.06012999999999</v>
       </c>
@@ -1996,7 +2021,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>155.05770999999999</v>
       </c>
@@ -2020,7 +2045,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>167.96396999999999</v>
       </c>
@@ -2044,7 +2069,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>178.18136000000001</v>
       </c>
@@ -2062,7 +2087,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>188.81577999999999</v>
       </c>
@@ -2080,7 +2105,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>200.07575</v>
       </c>
@@ -2098,7 +2123,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>212.16980000000001</v>
       </c>
@@ -2108,7 +2133,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>221.97014999999999</v>
       </c>
@@ -2118,17 +2143,17 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2143,13 +2168,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -2166,7 +2191,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.28000000000000003</v>
       </c>
@@ -2189,7 +2214,7 @@
         <v>1.09E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>1</v>
       </c>
@@ -2206,7 +2231,7 @@
         <v>1.4040000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E4" s="6">
         <v>5.8329999999999999E-6</v>
       </c>
@@ -2220,7 +2245,7 @@
         <v>2.2039999999999998E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E5" s="6">
         <v>7.4019999999999996E-6</v>
       </c>
@@ -2234,7 +2259,7 @@
         <v>3.032E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E6" s="6">
         <v>9.0990000000000005E-6</v>
       </c>
@@ -2248,7 +2273,7 @@
         <v>4.2399999999999998E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E7" s="6">
         <v>1.2300000000000001E-5</v>
       </c>
@@ -2262,7 +2287,7 @@
         <v>5.9290000000000002E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E8" s="6">
         <v>1.611E-5</v>
       </c>
@@ -2276,7 +2301,7 @@
         <v>7.7619999999999998E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E9" s="6">
         <v>2.1109999999999999E-5</v>
       </c>
@@ -2290,7 +2315,7 @@
         <v>1.0449999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E10" s="6">
         <v>2.8540000000000001E-5</v>
       </c>
@@ -2304,7 +2329,7 @@
         <v>1.345E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E11" s="6">
         <v>3.4530000000000003E-5</v>
       </c>
@@ -2318,7 +2343,7 @@
         <v>1.7420000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E12" s="6">
         <v>4.4520000000000001E-5</v>
       </c>
@@ -2332,7 +2357,7 @@
         <v>2.1350000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E13" s="6">
         <v>5.9249999999999997E-5</v>
       </c>
@@ -2346,7 +2371,7 @@
         <v>2.6890000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E14" s="6">
         <v>7.6920000000000002E-5</v>
       </c>
@@ -2360,7 +2385,7 @@
         <v>3.3509999999999998E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E15" s="6">
         <v>9.7510000000000007E-5</v>
       </c>
@@ -2374,7 +2399,7 @@
         <v>4.1599999999999998E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E16" s="6">
         <v>1.2769999999999999E-4</v>
       </c>
@@ -2388,7 +2413,7 @@
         <v>5.0560000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="5:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E17" s="6">
         <v>1.584E-4</v>
       </c>
@@ -2402,7 +2427,7 @@
         <v>5.9520000000000003E-2</v>
       </c>
     </row>
-    <row r="18" spans="5:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E18" s="6">
         <v>2.096E-4</v>
       </c>
@@ -2416,7 +2441,7 @@
         <v>7.1199999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="5:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E19" s="6">
         <v>2.7750000000000002E-4</v>
       </c>
@@ -2430,7 +2455,7 @@
         <v>8.4159999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="5:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E20" s="6">
         <v>3.7120000000000002E-4</v>
       </c>
@@ -2444,7 +2469,7 @@
         <v>9.7909999999999997E-2</v>
       </c>
     </row>
-    <row r="21" spans="5:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E21" s="6">
         <v>4.8079999999999998E-4</v>
       </c>
@@ -2458,7 +2483,7 @@
         <v>0.1148</v>
       </c>
     </row>
-    <row r="22" spans="5:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E22" s="6">
         <v>6.7369999999999995E-4</v>
       </c>
@@ -2472,7 +2497,7 @@
         <v>0.1336</v>
       </c>
     </row>
-    <row r="23" spans="5:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E23" s="6">
         <v>9.6219999999999997E-4</v>
       </c>
@@ -2486,7 +2511,7 @@
         <v>0.1517</v>
       </c>
     </row>
-    <row r="24" spans="5:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E24" s="6">
         <v>1.328E-3</v>
       </c>
@@ -2500,7 +2525,7 @@
         <v>0.1696</v>
       </c>
     </row>
-    <row r="25" spans="5:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E25" s="6">
         <v>1.853E-3</v>
       </c>
@@ -2514,7 +2539,7 @@
         <v>0.18809999999999999</v>
       </c>
     </row>
-    <row r="26" spans="5:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E26" s="6">
         <v>2.647E-3</v>
       </c>
@@ -2528,7 +2553,7 @@
         <v>0.21190000000000001</v>
       </c>
     </row>
-    <row r="27" spans="5:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E27" s="6">
         <v>3.8240000000000001E-3</v>
       </c>
@@ -2542,7 +2567,7 @@
         <v>0.23699999999999999</v>
       </c>
     </row>
-    <row r="28" spans="5:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E28" s="6">
         <v>6.058E-3</v>
       </c>
@@ -2556,7 +2581,7 @@
         <v>0.26229999999999998</v>
       </c>
     </row>
-    <row r="29" spans="5:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E29" s="6">
         <v>8.7530000000000004E-3</v>
       </c>
@@ -2570,7 +2595,7 @@
         <v>0.2923</v>
       </c>
     </row>
-    <row r="30" spans="5:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E30" s="6">
         <v>1.3860000000000001E-2</v>
       </c>
@@ -2584,7 +2609,7 @@
         <v>0.32469999999999999</v>
       </c>
     </row>
-    <row r="31" spans="5:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E31" s="6">
         <v>2.146E-2</v>
       </c>
@@ -2598,7 +2623,7 @@
         <v>0.3604</v>
       </c>
     </row>
-    <row r="32" spans="5:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E32" s="6">
         <v>3.6429999999999997E-2</v>
       </c>
@@ -2612,7 +2637,7 @@
         <v>0.39410000000000001</v>
       </c>
     </row>
-    <row r="33" spans="5:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E33" s="6">
         <v>5.9420000000000001E-2</v>
       </c>
@@ -2626,7 +2651,7 @@
         <v>0.42109999999999997</v>
       </c>
     </row>
-    <row r="34" spans="5:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E34" s="6">
         <v>9.2759999999999995E-2</v>
       </c>
@@ -2640,7 +2665,7 @@
         <v>0.43969999999999998</v>
       </c>
     </row>
-    <row r="35" spans="5:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E35" s="6">
         <v>0.13300000000000001</v>
       </c>
@@ -2654,7 +2679,7 @@
         <v>0.44479999999999997</v>
       </c>
     </row>
-    <row r="36" spans="5:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E36" s="6">
         <v>0.187</v>
       </c>
@@ -2668,7 +2693,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="37" spans="5:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E37" s="6">
         <v>0.27060000000000001</v>
       </c>
